--- a/rozetka_clone1.xlsx
+++ b/rozetka_clone1.xlsx
@@ -343,50 +343,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:D17"/>
+  <dimension ref="D3:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="4:4">
+    <row r="3" spans="4:5">
       <c r="D3">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="4:4">
+    <row r="4" spans="4:5">
       <c r="D4">
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="4:4">
+    <row r="5" spans="4:5">
       <c r="D5">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="4:4">
+    <row r="6" spans="4:5">
+      <c r="E6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
       <c r="D7">
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="4:4">
+    <row r="9" spans="4:5">
       <c r="D9">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="4:4">
+    <row r="11" spans="4:5">
       <c r="D11">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="4:4">
+    <row r="13" spans="4:5">
       <c r="D13">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="4:4">
+    <row r="15" spans="4:5">
       <c r="D15">
         <v>23</v>
       </c>
